--- a/src/main/resources/sample/excel/Complex_Translated_Mock.xlsx
+++ b/src/main/resources/sample/excel/Complex_Translated_Mock.xlsx
@@ -5,16 +5,16 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khair\Documents\GitHub\repositories\rendr\src\main\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khair\Documents\GitHub\repositories\rendr\src\main\resources\sample\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBAEE4B-0D71-4176-971D-2C5F2526F4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCBBF75-C1F0-4CF5-B324-EBBEA3ED15DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13200" yWindow="1095" windowWidth="22725" windowHeight="13440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4200" yWindow="1245" windowWidth="28800" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stock Balance" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId2"/>
+    <sheet name="Test Data" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="EQPosnDate">'Stock Balance'!#REF!</definedName>
@@ -338,7 +338,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -537,8 +537,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -579,62 +585,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -744,19 +694,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -789,8 +726,8 @@
     <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="40" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -815,9 +752,9 @@
     <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -825,8 +762,8 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -854,28 +791,22 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="38" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="2" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -933,23 +864,26 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="2" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="2" fillId="34" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="2" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="2" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="38" fontId="2" fillId="34" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="88">
@@ -1452,125 +1386,125 @@
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
     <col min="2" max="2" width="61.125" customWidth="1"/>
-    <col min="3" max="3" width="14.25" style="10" customWidth="1"/>
+    <col min="3" max="3" width="14.25" style="8" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.625" customWidth="1"/>
     <col min="6" max="6" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="4"/>
+      <c r="A1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="14.25" thickBot="1">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="20"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="20"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="20"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="18"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="18"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="18"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="18"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="18"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="18"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="7"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="8"/>
+      <c r="A12" s="5"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="7"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="8"/>
+      <c r="A13" s="5"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="C14" s="11"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="6"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="8"/>
+      <c r="A15" s="4"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="C16" s="11"/>
-      <c r="D16" s="6"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="4"/>
     </row>
     <row r="21" spans="5:5">
-      <c r="E21" s="9"/>
+      <c r="E21" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="17"/>
@@ -1584,75 +1518,81 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449881BD-6A68-49C0-AA20-83DAB95B90EE}">
-  <dimension ref="D7:L9"/>
+  <dimension ref="B3:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="4"/>
+  </cols>
   <sheetData>
-    <row r="7" spans="4:12" ht="14.25" thickBot="1"/>
-    <row r="8" spans="4:12" ht="14.45" customHeight="1" thickBot="1">
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-    </row>
-    <row r="9" spans="4:12" ht="94.5">
-      <c r="D9" s="24" t="s">
+    <row r="3" spans="2:10" ht="121.5">
+      <c r="B3" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="C3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="D3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="E3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="F3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="G3" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="H3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="26" t="s">
+      <c r="I3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="27" t="s">
+      <c r="J3" s="24" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+    </row>
+    <row r="8" spans="2:10" ht="14.45" customHeight="1">
+      <c r="F8" s="21"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008CDC787A71DDF645B3B1EC4B4C087709" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cfcc5dabae62faba7569d214b4f3e22c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -1766,17 +1706,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31452BF2-B3C4-4EBE-BE76-B62708FA3B9D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{835BF43D-5F5B-4A92-8B6A-74ACA0EB3617}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1790,17 +1746,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{835BF43D-5F5B-4A92-8B6A-74ACA0EB3617}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31452BF2-B3C4-4EBE-BE76-B62708FA3B9D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>